--- a/Dataset/countries.xlsx
+++ b/Dataset/countries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srihaasa\Documents\datamining\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srihaasa\Documents\gfiles\CSCI5502-DataMining_Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AE324C-8F2E-40A7-80A7-1709D41D9F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2859658-2909-4F50-8D0B-34FB3C02DD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Andorra</t>
   </si>
@@ -118,13 +118,171 @@
   </si>
   <si>
     <t>Monaco</t>
+  </si>
+  <si>
+    <t>Fragile and affected situations</t>
+  </si>
+  <si>
+    <t>High income</t>
+  </si>
+  <si>
+    <t>Heavily indebted poor countries (HIPC)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IBRD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nly</t>
+    </r>
+  </si>
+  <si>
+    <t>IDA &amp; IBRD total</t>
+  </si>
+  <si>
+    <t>IDA total</t>
+  </si>
+  <si>
+    <t>IDA blend</t>
+  </si>
+  <si>
+    <t>IDA only</t>
+  </si>
+  <si>
+    <t>Least developed countries: UN classification</t>
+  </si>
+  <si>
+    <t>Low income</t>
+  </si>
+  <si>
+    <t>Lower middle income</t>
+  </si>
+  <si>
+    <t>Low &amp; middle income</t>
+  </si>
+  <si>
+    <t>Late-demographic dividend</t>
+  </si>
+  <si>
+    <t>OECD members</t>
+  </si>
+  <si>
+    <t>Other small states</t>
+  </si>
+  <si>
+    <t>Pre-demographic dividend</t>
+  </si>
+  <si>
+    <t>Post-demographic dividend</t>
+  </si>
+  <si>
+    <t>Upper middle income</t>
+  </si>
+  <si>
+    <t>Arab World</t>
+  </si>
+  <si>
+    <t>East Asia &amp; Pacific (excluding high income)</t>
+  </si>
+  <si>
+    <t>Early-demographic dividend</t>
+  </si>
+  <si>
+    <t>East Asia &amp; Pacific</t>
+  </si>
+  <si>
+    <t>Europe &amp; Central Asia (excluding high income)</t>
+  </si>
+  <si>
+    <t>Europe &amp; Central Asia</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>Latin America &amp; Caribbean (excluding high income)</t>
+  </si>
+  <si>
+    <t>Latin America &amp; Caribbean</t>
+  </si>
+  <si>
+    <t>Middle East &amp; North Africa</t>
+  </si>
+  <si>
+    <t>Middle East &amp; North Africa (excluding high income)</t>
+  </si>
+  <si>
+    <t>Middle income</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Pacific island small states</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa (excluding high income)</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Small states</t>
+  </si>
+  <si>
+    <t>East Asia &amp; Pacific (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>Europe &amp; Central Asia (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>Latin America &amp; the Caribbean (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>Middle East &amp; North Africa (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>South Asia (IDA &amp; IBRD)</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa (IDA &amp; IBRD countries)</t>
+  </si>
+  <si>
+    <t>Central Europe and the Baltics</t>
+  </si>
+  <si>
+    <t>Caribbean small states</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>Euroarea</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,7 +301,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,10 +336,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,6 +785,241 @@
         <v>28</v>
       </c>
     </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
